--- a/학사관리 샘플데이터/학사관리테이블명세서.xlsx
+++ b/학사관리 샘플데이터/학사관리테이블명세서.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizworks\DBMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizworks\DBMS\학사관리 샘플데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26010" windowHeight="8880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26010" windowHeight="8880" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="학생점수테이블" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -191,10 +191,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Nvarchar2(20)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>한글가변문자열(10)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -211,14 +207,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Nvarchar2(20)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nvarchar2(125)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>NOT NULL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -276,6 +264,22 @@
   </si>
   <si>
     <t>PRIMARY KEY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(125)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(10)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -665,6 +669,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -672,9 +679,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1021,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:H9"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1690,10 +1694,10 @@
         <v>12</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="30">
+      <c r="J2" s="27">
         <v>44309</v>
       </c>
-      <c r="K2" s="27"/>
+      <c r="K2" s="28"/>
       <c r="L2" s="20" t="s">
         <v>11</v>
       </c>
@@ -1713,10 +1717,10 @@
         <v>13</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="29"/>
+      <c r="K3" s="30"/>
       <c r="L3" s="19">
         <v>1</v>
       </c>
@@ -1778,20 +1782,20 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1803,19 +1807,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -1828,19 +1832,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="E8" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="F8" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>60</v>
-      </c>
       <c r="G8" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
@@ -1853,19 +1857,19 @@
         <v>4</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>61</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -2073,8 +2077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2742,10 +2746,10 @@
         <v>12</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="30">
+      <c r="J2" s="27">
         <v>44308</v>
       </c>
-      <c r="K2" s="27"/>
+      <c r="K2" s="28"/>
       <c r="L2" s="20" t="s">
         <v>11</v>
       </c>
@@ -2765,10 +2769,10 @@
         <v>13</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="29"/>
+      <c r="K3" s="30"/>
       <c r="L3" s="19">
         <v>1</v>
       </c>
@@ -2842,7 +2846,9 @@
         <v>40</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -2862,10 +2868,10 @@
         <v>35</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -2881,13 +2887,13 @@
         <v>26</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>36</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -2910,7 +2916,7 @@
         <v>37</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -2927,13 +2933,13 @@
         <v>28</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>38</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
@@ -2956,7 +2962,7 @@
         <v>39</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
@@ -3117,12 +3123,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
